--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60082.65485048205</v>
+        <v>11905721.75454462</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60082.65485048205</v>
+        <v>11905721.75454462</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52097.76357619998</v>
+        <v>6543727.509039882</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52097.76357619998</v>
+        <v>6543727.509039882</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610086523.501178</v>
+        <v>62242322.74462806</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13562.12468980216</v>
+        <v>1492985.566208002</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26036.3277033512</v>
+        <v>2815331.458557226</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38510.53071690021</v>
+        <v>4137677.350906451</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52787.57148432843</v>
+        <v>5217578.497998093</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65776.98645344692</v>
+        <v>6469183.439133418</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78766.40142256544</v>
+        <v>7720788.380268736</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91731.25196113848</v>
+        <v>9061464.088679692</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104597.7461360751</v>
+        <v>10382566.88072701</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118697.0609286476</v>
+        <v>11359874.10736858</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131770.5176011418</v>
+        <v>12544515.75285258</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144843.9742736359</v>
+        <v>13729157.39833658</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>157917.43094613</v>
+        <v>14913799.04382059</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>170990.8876186242</v>
+        <v>16098440.68930461</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>186884.564919858</v>
+        <v>16916884.43887072</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>206300.9655797738</v>
+        <v>17209611.53865329</v>
       </c>
     </row>
   </sheetData>
